--- a/application/static/excel_data/data_crawling -- #belajaronline.xlsx
+++ b/application/static/excel_data/data_crawling -- #belajaronline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -884,6 +884,49 @@
   </si>
   <si>
     <t>Wed Dec 09 03:58:03 +0000 2020</t>
+  </si>
+  <si>
+    <t>Kita kasih waktu sampai malam tahun baru, deh~
+Cek Instagram @kelaskitadotcom sekarang juga!
+#kelaskita #carabarubelajarseru #belajardirumah #elearning #belajaronline #dirumahaja #ikancupang #giveaway #parangkencana https://t.co/Cxu1EhOwe9</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 06:07:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Punya topik atau pertanyaan menarik untuk dibahas? Ayo sharing bareng kami di sesi lia s. bookclub! 📚 Tayang live di Instagram setiap Sabtu jam 11.00 WIB, jangan sampai ketinggalan ya 😃
+#liasidikbranding #belajaronline #books #growth #branding101 https://t.co/kXMtmE4GJ2</t>
+  </si>
+  <si>
+    <t>Sat Dec 12 01:00:58 +0000 2020</t>
+  </si>
+  <si>
+    <t>(..con) m dari https://t.co/yzZy8M21Lb.
+#belajardaring
+#belajaronline
+#kknupi2020
+#dirumahaja https://t.co/ZfXXd4UULF</t>
+  </si>
+  <si>
+    <t>Krsmynt1</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 12:15:02 +0000 2020</t>
+  </si>
+  <si>
+    <t>Ini hari, Kelaskita mau ngasih tau siapa-siapa aja 'Pang Jago yang berhasil mendapatkan hadiah keren dari @kelaskitadotcom.
+Cek Instagram @kelaskitadotcom sekarang!
+#kelaskita #carabarubelajarseru #HaloPangJago #belajardirumah #belajaronline #dirumahaja #ikancupang #giveaway https://t.co/hcHpLGsXrS</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 09:58:34 +0000 2020</t>
+  </si>
+  <si>
+    <t>Pastikan anak anda memiliki cangkir yang penuh! 
+#Vyneapple #funlearning #keluarga #studygram #belajar #belajaronline #parenthood #parenting #parentingtips #aplikasiandroid #aplikasiios #pendidikan #anakpintar #edukasianak https://t.co/zcwxAF3s2V</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 05:18:56 +0000 2020</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,6 +2601,76 @@
         <v>218</v>
       </c>
     </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1.3376402174449249E+18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1.3375630604631611E+18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1.3373703031654651E+18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1.337335960791446E+18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1.3372655882304509E+18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D98" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
